--- a/Assets/Vocabulary/GBLxAPI_Vocab_User.xlsx
+++ b/Assets/Vocabulary/GBLxAPI_Vocab_User.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052C8DA4-4920-46E5-8DCF-3F964C06D389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CAB6905-6462-4CBB-9A94-1858F4D9D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -41,36 +41,6 @@
     <t>Descirption</t>
   </si>
   <si>
-    <t>opened</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/opened</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/closed</t>
-  </si>
-  <si>
-    <t>waited</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/waited</t>
-  </si>
-  <si>
-    <t>activated</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitored </t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/monitored</t>
-  </si>
-  <si>
     <t>played</t>
   </si>
   <si>
@@ -98,28 +68,40 @@
     <t xml:space="preserve">indicate that the learner requested a hint </t>
   </si>
   <si>
-    <t>console</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/console</t>
-  </si>
-  <si>
-    <t>dialogbox</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/dialogbox</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/door</t>
-  </si>
-  <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/robot</t>
+    <t>losed</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/losed</t>
+  </si>
+  <si>
+    <t>indicate that the learner losed a healthpoint</t>
+  </si>
+  <si>
+    <t>learned</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/learned</t>
+  </si>
+  <si>
+    <t>indicates the concept being learned</t>
+  </si>
+  <si>
+    <t>exited</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/verbs/exited</t>
+  </si>
+  <si>
+    <t>player quits the game</t>
+  </si>
+  <si>
+    <t>endedType</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/endedType</t>
+  </si>
+  <si>
+    <t>type of end of a level</t>
   </si>
   <si>
     <t xml:space="preserve">level </t>
@@ -137,7 +119,7 @@
     <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/detectionCell</t>
   </si>
   <si>
-    <t>robot collided with detection cell (end game)</t>
+    <t>robot collided with detection cell (end type)</t>
   </si>
   <si>
     <t>hint</t>
@@ -146,7 +128,97 @@
     <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/hint</t>
   </si>
   <si>
-    <t>(indice)</t>
+    <t xml:space="preserve">hint requested </t>
+  </si>
+  <si>
+    <t>healthPoint</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/healthPoint</t>
+  </si>
+  <si>
+    <t>health point losed</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/while</t>
+  </si>
+  <si>
+    <t>"while" concept</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/for</t>
+  </si>
+  <si>
+    <t>"for" concept</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/if</t>
+  </si>
+  <si>
+    <t>"if" concept</t>
+  </si>
+  <si>
+    <t>ifElse</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/ifElse</t>
+  </si>
+  <si>
+    <t>"ifElse" concept</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/session</t>
+  </si>
+  <si>
+    <t>player session</t>
+  </si>
+  <si>
+    <t>victory</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/victory</t>
+  </si>
+  <si>
+    <t>player win the level</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robot is dead </t>
+  </si>
+  <si>
+    <t>badCondition</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/badCondition</t>
+  </si>
+  <si>
+    <t>player has incorrectly completed a condition</t>
+  </si>
+  <si>
+    <t>noMoreAttempt</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/activity-types/noMoreAttempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">player has exhausted all his attempts </t>
   </si>
   <si>
     <t>script</t>
@@ -192,13 +264,31 @@
   </si>
   <si>
     <t xml:space="preserve">type of the hint (basic, advanced) </t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/extensions/star</t>
+  </si>
+  <si>
+    <t>indicate number of star obtained</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>https://lrsmocah.lip6.fr/data/xAPI/extensions/duration</t>
+  </si>
+  <si>
+    <t>duration session/level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,12 +307,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -251,14 +335,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -478,16 +561,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,89 +585,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{1202D125-F9DB-4E24-B24B-895278ABC977}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{33871A1D-AE6B-4D61-B69E-084AA192BFCD}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{FD81A5F0-B397-4991-86CC-BF4A8C344EAB}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1202D125-F9DB-4E24-B24B-895278ABC977}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{33871A1D-AE6B-4D61-B69E-084AA192BFCD}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{FD81A5F0-B397-4991-86CC-BF4A8C344EAB}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A858A4D8-A773-4071-AB4B-CB9B821AFA93}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9A38F97C-78A8-4146-A564-D034E32E6DF2}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{D9AC72CD-C31C-4AA7-B034-2D2B157C7991}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{6D8736EC-9D5B-42B8-A68F-779F1C3E8FDB}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -595,16 +681,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -618,80 +705,164 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{EB830131-284E-4CCF-9F1B-2F2DACB6A132}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{883DD705-8F7E-42BD-9A42-74CCD85447AE}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{37D84008-3783-47CD-97D1-06F7880C0BF6}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EB830131-284E-4CCF-9F1B-2F2DACB6A132}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{883DD705-8F7E-42BD-9A42-74CCD85447AE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{37D84008-3783-47CD-97D1-06F7880C0BF6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{01C56613-6FE9-496E-BAB7-835C4A96E3B2}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{446C9682-744A-431F-BA82-87EDE9B4A4EB}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{ABB630D9-7969-4A5A-82BC-6E6576E4561B}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{DC9A1AEF-10C0-4145-9B8A-F00B0EB8F5B3}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{E73C0C35-A167-49B0-9114-4E84E570A996}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{0D58663A-6E6D-4412-AC66-C90A324C9F9C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{7BCB7BE3-8159-4943-8146-959F72C7E4F7}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{134817E0-0A45-40D8-8DFF-9B0B99684E81}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{FA341A7D-5E52-4EA7-91D2-2E7CEBEE0942}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{9DDFFFC5-00D4-44C1-A2AB-16615C2E788D}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -702,10 +873,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -727,57 +898,79 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -787,6 +980,8 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{76154E6C-6D2E-43C0-90BD-E160C125FCBA}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{ECDA865C-4C89-426E-A26C-E085AAB214FB}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{19CC6BDC-5987-40DD-BB67-3C808A1A79C3}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{AA338234-7305-46EA-9BAA-078A77BDA4DE}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{5351D048-2C07-4671-8BC4-545FF8D9F88F}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
